--- a/Componentes elegidos/componentes trabajo.xlsx
+++ b/Componentes elegidos/componentes trabajo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\universidad\Master\redes de sensores\trabajo puntillas\Componentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\Proyecto\Rsensores\Componentes elegidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252EF01-A572-4DAE-AAFB-3A7C0446A9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0EB33-229A-4339-B417-1B1D2D305753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9575BA56-7B74-44DD-B98C-E4856CD0C909}"/>
   </bookViews>
@@ -525,7 +525,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,9 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -623,13 +620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1206,14 +1196,14 @@
       <c r="D11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="16"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1244,7 +1234,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,146 +1246,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>0.02</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>0.02</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1424,7 +1406,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>82</v>
       </c>
     </row>
